--- a/DSSGraph_Output.xlsx
+++ b/DSSGraph_Output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Grid plot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alireza\Desktop\Grid-plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41AF10-0840-4F95-B72D-8E399E81760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C130BCEF-5C6D-4DB2-9BE1-7C6F40B9C97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20DD7DFC-71EA-4FBC-8128-3E7ABB9F5BED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20DD7DFC-71EA-4FBC-8128-3E7ABB9F5BED}"/>
   </bookViews>
   <sheets>
     <sheet name="DSSGraph_Output" sheetId="1" r:id="rId1"/>
@@ -898,7 +898,7 @@
   <dimension ref="A1:E907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
